--- a/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,25; -13,81</t>
+          <t>-27,73; -13,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -6,84</t>
+          <t>-21,3; -7,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,04; -30,3</t>
+          <t>-56,88; -30,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,38; -15,79</t>
+          <t>-44,45; -16,93</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 2,12</t>
+          <t>-7,52; 1,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,62</t>
+          <t>-9,37; -0,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 6,64</t>
+          <t>-21,48; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -1,84</t>
+          <t>-26,17; -1,53</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 5,83</t>
+          <t>-8,54; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 7,59</t>
+          <t>-8,96; 7,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 42,41</t>
+          <t>-38,99; 44,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 49,71</t>
+          <t>-38,36; 45,26</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,37; -5,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -4,98</t>
+          <t>-11,62; -5,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,71; -14,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,64; -14,21</t>
+          <t>-30,71; -14,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -13,38</t>
+          <t>-27,79; -12,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,3; -7,6</t>
+          <t>-20,9; -6,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-56,88; -30,17</t>
+          <t>-56,14; -28,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,45; -16,93</t>
+          <t>-44,1; -15,41</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 1,87</t>
+          <t>-7,42; 2,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -0,47</t>
+          <t>-9,59; -0,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 6,02</t>
+          <t>-21,4; 6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -1,53</t>
+          <t>-26,4; -1,86</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 6,58</t>
+          <t>-8,35; 6,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 7,03</t>
+          <t>-8,9; 7,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 44,13</t>
+          <t>-38,98; 47,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 45,26</t>
+          <t>-38,5; 44,75</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -5,06</t>
+          <t>-12,23; -5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -5,01</t>
+          <t>-11,68; -4,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -14,65</t>
+          <t>-33,18; -15,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,71; -14,09</t>
+          <t>-30,83; -14,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,79; -12,79</t>
+          <t>-28,25; -13,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -6,79</t>
+          <t>-20,9; -6,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-56,14; -28,49</t>
+          <t>-57,04; -30,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -15,41</t>
+          <t>-44,38; -15,79</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 2,06</t>
+          <t>-7,28; 2,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -0,73</t>
+          <t>-8,84; -0,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 6,45</t>
+          <t>-21,24; 6,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,4; -1,86</t>
+          <t>-24,47; -1,84</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 6,92</t>
+          <t>-9,47; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,05</t>
+          <t>-9,07; 7,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 47,97</t>
+          <t>-42,52; 42,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 44,75</t>
+          <t>-37,73; 49,71</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -5,28</t>
+          <t>-12,45; -5,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,88</t>
+          <t>-12,18; -4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -15,57</t>
+          <t>-33,22; -15,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,83; -14,08</t>
+          <t>-31,64; -14,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,16 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>13,29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-26,34</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-43,5%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-30,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-49,06%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-33,56; 43,8</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-34,33; -16,9</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>-57,04; -30,3</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>-44,38; -15,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-50,57; 87,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-61,39; -33,94</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>-7,43</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-8,59%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-14,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-13,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,28%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-25,24; 11,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 13,82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>-21,24; 6,64</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>-24,47; -1,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-43,25; 23,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-26,75; 92,01</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-8,25%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-25,05; 36,54</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 8,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>-42,52; 42,41</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-37,73; 49,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-62,47; 179,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-27,82; 52,46</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-5,29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-5,06</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-24,61%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>-22,66%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-10,4%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,3%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-18,52; 9,42</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-11,29; 6,94</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>-33,22; -15,39</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>-31,64; -14,21</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-34,95; 19,45</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-32,76; 34,05</t>
         </is>
       </c>
     </row>
@@ -818,10 +1017,10 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,29</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>-26,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,25; -13,81</t>
+          <t>-28,17; -13,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -6,84</t>
+          <t>-21,22; -6,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 43,8</t>
+          <t>-20,19; -2,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -16,9</t>
+          <t>-35,01; -17,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,04; -30,3</t>
+          <t>-56,37; -28,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,38; -15,79</t>
+          <t>-43,73; -14,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 87,63</t>
+          <t>-42,77; -6,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,39; -33,94</t>
+          <t>-61,34; -34,36</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>-28,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 2,12</t>
+          <t>-7,21; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,62</t>
+          <t>-9,3; -0,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 11,49</t>
+          <t>-13,9; -5,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 13,82</t>
+          <t>-8,29; 12,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 6,64</t>
+          <t>-20,75; 7,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -1,84</t>
+          <t>-25,45; -1,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 23,28</t>
+          <t>-37,39; -17,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 92,01</t>
+          <t>-26,25; 91,61</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 5,83</t>
+          <t>-9,25; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 7,59</t>
+          <t>-9,1; 7,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 36,54</t>
+          <t>-10,35; 7,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 8,61</t>
+          <t>-6,28; 8,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 42,41</t>
+          <t>-42,3; 48,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 49,71</t>
+          <t>-39,09; 46,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,47; 179,13</t>
+          <t>-36,61; 37,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 52,46</t>
+          <t>-26,04; 51,78</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>-28,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,2; -5,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -4,98</t>
+          <t>-11,81; -4,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 9,42</t>
+          <t>-13,9; -6,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,94</t>
+          <t>-11,41; 6,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,64; -14,21</t>
+          <t>-30,86; -13,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 19,45</t>
+          <t>-36,32; -19,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 34,05</t>
+          <t>-33,23; 31,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-26,34</t>
+          <t>-43,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-43,5%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>-26,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-49,06%</t>
         </is>
       </c>
     </row>
@@ -683,27 +657,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -17,87</t>
+          <t>-56,37; -28,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,37; -28,6</t>
+          <t>-43,73; -14,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,73; -14,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
           <t>-42,77; -6,29</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-61,34; -34,36</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>-14,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-28,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
         </is>
       </c>
     </row>
@@ -783,27 +737,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 12,9</t>
+          <t>-20,75; 7,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 7,43</t>
+          <t>-25,45; -1,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -1,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
           <t>-37,39; -17,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-26,25; 91,61</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-5,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -883,27 +817,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 8,29</t>
+          <t>-42,3; 48,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 48,04</t>
+          <t>-39,09; 46,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 46,32</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
           <t>-36,61; 37,58</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-26,04; 51,78</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-22,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,66%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-28,5%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-17,3%</t>
         </is>
       </c>
     </row>
@@ -983,27 +897,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 6,08</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -15,1</t>
+          <t>-30,86; -13,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,86; -13,65</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
           <t>-36,32; -19,64</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-33,23; 31,69</t>
         </is>
       </c>
     </row>
@@ -1016,11 +920,11 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
